--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.709841333333333</v>
+        <v>4.308396</v>
       </c>
       <c r="H2">
-        <v>8.129524</v>
+        <v>12.925188</v>
       </c>
       <c r="I2">
-        <v>0.8843878562630022</v>
+        <v>0.8865596696737007</v>
       </c>
       <c r="J2">
-        <v>0.8843878562630021</v>
+        <v>0.8865596696737006</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N2">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O2">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P2">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q2">
-        <v>9.790364074469334</v>
+        <v>14.990658892776</v>
       </c>
       <c r="R2">
-        <v>88.113276670224</v>
+        <v>134.915930034984</v>
       </c>
       <c r="S2">
-        <v>0.1439849519935559</v>
+        <v>0.1439968022619177</v>
       </c>
       <c r="T2">
-        <v>0.1439849519935559</v>
+        <v>0.1439968022619177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.709841333333333</v>
+        <v>4.308396</v>
       </c>
       <c r="H3">
-        <v>8.129524</v>
+        <v>12.925188</v>
       </c>
       <c r="I3">
-        <v>0.8843878562630022</v>
+        <v>0.8865596696737007</v>
       </c>
       <c r="J3">
-        <v>0.8843878562630021</v>
+        <v>0.8865596696737006</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N3">
         <v>23.79245</v>
       </c>
       <c r="O3">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P3">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q3">
-        <v>21.49125481042222</v>
+        <v>34.1690988034</v>
       </c>
       <c r="R3">
-        <v>193.4212932938</v>
+        <v>307.5218892306</v>
       </c>
       <c r="S3">
-        <v>0.3160676424924114</v>
+        <v>0.328220460425004</v>
       </c>
       <c r="T3">
-        <v>0.3160676424924114</v>
+        <v>0.328220460425004</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.709841333333333</v>
+        <v>4.308396</v>
       </c>
       <c r="H4">
-        <v>8.129524</v>
+        <v>12.925188</v>
       </c>
       <c r="I4">
-        <v>0.8843878562630022</v>
+        <v>0.8865596696737007</v>
       </c>
       <c r="J4">
-        <v>0.8843878562630021</v>
+        <v>0.8865596696737006</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N4">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O4">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P4">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q4">
-        <v>11.81182080077422</v>
+        <v>20.538910732336</v>
       </c>
       <c r="R4">
-        <v>106.306387206968</v>
+        <v>184.850196591024</v>
       </c>
       <c r="S4">
-        <v>0.1737141170664939</v>
+        <v>0.1972920262247181</v>
       </c>
       <c r="T4">
-        <v>0.1737141170664939</v>
+        <v>0.1972920262247181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.709841333333333</v>
+        <v>4.308396</v>
       </c>
       <c r="H5">
-        <v>8.129524</v>
+        <v>12.925188</v>
       </c>
       <c r="I5">
-        <v>0.8843878562630022</v>
+        <v>0.8865596696737007</v>
       </c>
       <c r="J5">
-        <v>0.8843878562630021</v>
+        <v>0.8865596696737006</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N5">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O5">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P5">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q5">
-        <v>2.806344202896</v>
+        <v>5.812026204</v>
       </c>
       <c r="R5">
-        <v>25.257097826064</v>
+        <v>52.30823583599999</v>
       </c>
       <c r="S5">
-        <v>0.04127235026786033</v>
+        <v>0.05582897950148014</v>
       </c>
       <c r="T5">
-        <v>0.04127235026786032</v>
+        <v>0.05582897950148014</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.709841333333333</v>
+        <v>4.308396</v>
       </c>
       <c r="H6">
-        <v>8.129524</v>
+        <v>12.925188</v>
       </c>
       <c r="I6">
-        <v>0.8843878562630022</v>
+        <v>0.8865596696737007</v>
       </c>
       <c r="J6">
-        <v>0.8843878562630021</v>
+        <v>0.8865596696737006</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N6">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O6">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P6">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q6">
-        <v>14.23482723553511</v>
+        <v>16.783810435712</v>
       </c>
       <c r="R6">
-        <v>128.113445119816</v>
+        <v>151.054293921408</v>
       </c>
       <c r="S6">
-        <v>0.2093487944426806</v>
+        <v>0.1612214012605807</v>
       </c>
       <c r="T6">
-        <v>0.2093487944426806</v>
+        <v>0.1612214012605807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.187785</v>
       </c>
       <c r="I7">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="J7">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N7">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O7">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P7">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q7">
-        <v>0.22614897474</v>
+        <v>0.21779341857</v>
       </c>
       <c r="R7">
-        <v>2.03534077266</v>
+        <v>1.96014076713</v>
       </c>
       <c r="S7">
-        <v>0.003325928333578928</v>
+        <v>0.002092073207194683</v>
       </c>
       <c r="T7">
-        <v>0.003325928333578927</v>
+        <v>0.002092073207194682</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.187785</v>
       </c>
       <c r="I8">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="J8">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N8">
         <v>23.79245</v>
       </c>
       <c r="O8">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P8">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q8">
-        <v>0.4964294692499999</v>
+        <v>0.49642946925</v>
       </c>
       <c r="R8">
         <v>4.46786522325</v>
       </c>
       <c r="S8">
-        <v>0.007300890217611446</v>
+        <v>0.004768586666662751</v>
       </c>
       <c r="T8">
-        <v>0.007300890217611444</v>
+        <v>0.00476858666666275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>0.187785</v>
       </c>
       <c r="I9">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="J9">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N9">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O9">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P9">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q9">
-        <v>0.2728428834300001</v>
+        <v>0.29840179902</v>
       </c>
       <c r="R9">
-        <v>2.45558595087</v>
+        <v>2.68561619118</v>
       </c>
       <c r="S9">
-        <v>0.00401264643210741</v>
+        <v>0.002866378666570165</v>
       </c>
       <c r="T9">
-        <v>0.004012646432107409</v>
+        <v>0.002866378666570165</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.187785</v>
       </c>
       <c r="I10">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="J10">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N10">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O10">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P10">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q10">
-        <v>0.06482413313999999</v>
+        <v>0.08444065499999999</v>
       </c>
       <c r="R10">
-        <v>0.5834171982599999</v>
+        <v>0.759965895</v>
       </c>
       <c r="S10">
-        <v>0.0009533557309198117</v>
+        <v>0.0008111174023685728</v>
       </c>
       <c r="T10">
-        <v>0.0009533557309198116</v>
+        <v>0.0008111174023685727</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>0.187785</v>
       </c>
       <c r="I11">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="J11">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N11">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O11">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P11">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q11">
-        <v>0.32881224441</v>
+        <v>0.24384541584</v>
       </c>
       <c r="R11">
-        <v>2.95931019969</v>
+        <v>2.19460874256</v>
       </c>
       <c r="S11">
-        <v>0.004835776776649995</v>
+        <v>0.002342322667625272</v>
       </c>
       <c r="T11">
-        <v>0.004835776776649994</v>
+        <v>0.002342322667625271</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2916506666666667</v>
+        <v>0.05725033333333333</v>
       </c>
       <c r="H12">
-        <v>0.874952</v>
+        <v>0.171751</v>
       </c>
       <c r="I12">
-        <v>0.09518354624613032</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="J12">
-        <v>0.09518354624613029</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N12">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O12">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P12">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q12">
-        <v>1.053702360394667</v>
+        <v>0.199197153302</v>
       </c>
       <c r="R12">
-        <v>9.483321243551998</v>
+        <v>1.792774379718</v>
       </c>
       <c r="S12">
-        <v>0.0154965926315816</v>
+        <v>0.001913441784002417</v>
       </c>
       <c r="T12">
-        <v>0.01549659263158159</v>
+        <v>0.001913441784002417</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2916506666666667</v>
+        <v>0.05725033333333333</v>
       </c>
       <c r="H13">
-        <v>0.874952</v>
+        <v>0.171751</v>
       </c>
       <c r="I13">
-        <v>0.09518354624613032</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="J13">
-        <v>0.09518354624613029</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N13">
         <v>23.79245</v>
       </c>
       <c r="O13">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P13">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q13">
-        <v>2.313027968044444</v>
+        <v>0.4540418977722223</v>
       </c>
       <c r="R13">
-        <v>20.8172517124</v>
+        <v>4.08637707995</v>
       </c>
       <c r="S13">
-        <v>0.03401724577404783</v>
+        <v>0.004361421458508368</v>
       </c>
       <c r="T13">
-        <v>0.03401724577404781</v>
+        <v>0.004361421458508368</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2916506666666667</v>
+        <v>0.05725033333333333</v>
       </c>
       <c r="H14">
-        <v>0.874952</v>
+        <v>0.171751</v>
       </c>
       <c r="I14">
-        <v>0.09518354624613032</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="J14">
-        <v>0.09518354624613029</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N14">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O14">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P14">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q14">
-        <v>1.271264619340445</v>
+        <v>0.2729227967275555</v>
       </c>
       <c r="R14">
-        <v>11.441381574064</v>
+        <v>2.456305170548</v>
       </c>
       <c r="S14">
-        <v>0.01869623783084508</v>
+        <v>0.002621633263370836</v>
       </c>
       <c r="T14">
-        <v>0.01869623783084507</v>
+        <v>0.002621633263370835</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2916506666666667</v>
+        <v>0.05725033333333333</v>
       </c>
       <c r="H15">
-        <v>0.874952</v>
+        <v>0.171751</v>
       </c>
       <c r="I15">
-        <v>0.09518354624613032</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="J15">
-        <v>0.09518354624613029</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N15">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O15">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P15">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q15">
-        <v>0.302036930208</v>
+        <v>0.07723069966666665</v>
       </c>
       <c r="R15">
-        <v>2.718332371872</v>
+        <v>0.6950762969999998</v>
       </c>
       <c r="S15">
-        <v>0.004441997515668191</v>
+        <v>0.0007418602389658638</v>
       </c>
       <c r="T15">
-        <v>0.004441997515668189</v>
+        <v>0.0007418602389658637</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2916506666666667</v>
+        <v>0.05725033333333333</v>
       </c>
       <c r="H16">
-        <v>0.874952</v>
+        <v>0.171751</v>
       </c>
       <c r="I16">
-        <v>0.09518354624613032</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="J16">
-        <v>0.09518354624613029</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N16">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O16">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P16">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q16">
-        <v>1.532044257374222</v>
+        <v>0.2230247038684444</v>
       </c>
       <c r="R16">
-        <v>13.788398316368</v>
+        <v>2.007222334816</v>
       </c>
       <c r="S16">
-        <v>0.02253147249398763</v>
+        <v>0.002142323723872024</v>
       </c>
       <c r="T16">
-        <v>0.02253147249398763</v>
+        <v>0.002142323723872024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4314383333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.294315</v>
+      </c>
+      <c r="I17">
+        <v>0.08877917124715834</v>
+      </c>
+      <c r="J17">
+        <v>0.08877917124715833</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.479406</v>
+      </c>
+      <c r="N17">
+        <v>10.438218</v>
+      </c>
+      <c r="O17">
+        <v>0.1624220085658938</v>
+      </c>
+      <c r="P17">
+        <v>0.1624220085658938</v>
+      </c>
+      <c r="Q17">
+        <v>1.50114912563</v>
+      </c>
+      <c r="R17">
+        <v>13.51034213067</v>
+      </c>
+      <c r="S17">
+        <v>0.0144196913127789</v>
+      </c>
+      <c r="T17">
+        <v>0.0144196913127789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4314383333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.294315</v>
+      </c>
+      <c r="I18">
+        <v>0.08877917124715834</v>
+      </c>
+      <c r="J18">
+        <v>0.08877917124715833</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.930816666666668</v>
+      </c>
+      <c r="N18">
+        <v>23.79245</v>
+      </c>
+      <c r="O18">
+        <v>0.3702181270503834</v>
+      </c>
+      <c r="P18">
+        <v>0.3702181270503834</v>
+      </c>
+      <c r="Q18">
+        <v>3.421658324638889</v>
+      </c>
+      <c r="R18">
+        <v>30.79492492175001</v>
+      </c>
+      <c r="S18">
+        <v>0.03286765850020821</v>
+      </c>
+      <c r="T18">
+        <v>0.0328676585002082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4314383333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.294315</v>
+      </c>
+      <c r="I19">
+        <v>0.08877917124715834</v>
+      </c>
+      <c r="J19">
+        <v>0.08877917124715833</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.767182666666667</v>
+      </c>
+      <c r="N19">
+        <v>14.301548</v>
+      </c>
+      <c r="O19">
+        <v>0.2225366582458366</v>
+      </c>
+      <c r="P19">
+        <v>0.2225366582458366</v>
+      </c>
+      <c r="Q19">
+        <v>2.056745344402223</v>
+      </c>
+      <c r="R19">
+        <v>18.51070809962</v>
+      </c>
+      <c r="S19">
+        <v>0.01975662009117748</v>
+      </c>
+      <c r="T19">
+        <v>0.01975662009117748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4314383333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.294315</v>
+      </c>
+      <c r="I20">
+        <v>0.08877917124715834</v>
+      </c>
+      <c r="J20">
+        <v>0.08877917124715833</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.349</v>
+      </c>
+      <c r="N20">
+        <v>4.047</v>
+      </c>
+      <c r="O20">
+        <v>0.06297261358846615</v>
+      </c>
+      <c r="P20">
+        <v>0.06297261358846615</v>
+      </c>
+      <c r="Q20">
+        <v>0.5820103116666667</v>
+      </c>
+      <c r="R20">
+        <v>5.238092805</v>
+      </c>
+      <c r="S20">
+        <v>0.005590656445651566</v>
+      </c>
+      <c r="T20">
+        <v>0.005590656445651565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4314383333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.294315</v>
+      </c>
+      <c r="I21">
+        <v>0.08877917124715834</v>
+      </c>
+      <c r="J21">
+        <v>0.08877917124715833</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.895605333333334</v>
+      </c>
+      <c r="N21">
+        <v>11.686816</v>
+      </c>
+      <c r="O21">
+        <v>0.1818505925494202</v>
+      </c>
+      <c r="P21">
+        <v>0.1818505925494202</v>
+      </c>
+      <c r="Q21">
+        <v>1.680713472337778</v>
+      </c>
+      <c r="R21">
+        <v>15.12642125104</v>
+      </c>
+      <c r="S21">
+        <v>0.01614454489734219</v>
+      </c>
+      <c r="T21">
+        <v>0.01614454489734219</v>
       </c>
     </row>
   </sheetData>
